--- a/Output_testing/R1_201907/Country/HKD/MN/MYANMAR_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MYANMAR_201907_HKD_MN.xlsx
@@ -810,136 +810,435 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>144.831924</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>9.452877313983761</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>261.503044</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>11.57811084968764</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>121.197471</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>6.051244049372889</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>155.099022</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>13.0051650175045</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>106.9054868185966</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>189.860074</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>12.39177065924967</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>287.517495</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>12.72990699234275</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>254.337685</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>12.69877490172651</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>103.326867</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>8.664032427469078</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-37.30881840667445</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>376.262844</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>24.55789030423024</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>249.615361</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>11.05178079473063</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>345.589846</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>17.25488561664123</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>102.109305</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>8.561938974365017</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-43.37423145426633</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>29.781619</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.94378409706694</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>76.30073400000001</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.378233548074992</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>119.522777</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>5.967628590911545</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>86.95766</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>7.291462597591686</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>37.2640440436228</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>51.554264</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.364839181482735</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>72.696072</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>3.218636261660014</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>108.936469</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>5.439066957065005</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>70.411787</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>5.904079196014388</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>13.38142176694463</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>42.286194</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.75993160152534</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>65.804365</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.913504258724062</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>87.773641</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>4.382432392446887</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>52.597961</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>4.410377019587305</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-5.234380137653305</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>5.440664</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.3551007808099556</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>7.967762</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.3527745996713098</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>7.196331</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.3593041569412587</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>49.413185</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>4.143331251730769</v>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>25.759234</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.681251425647009</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>40.238299</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.781560470955265</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>53.091927</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.650816099359778</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>42.022201</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>3.523591905071731</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>34.50984660054732</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL YARNS, SPECIAL TEXTILE FABRICS AND RELATED PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>19.570855</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.277348847791083</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>51.294107</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2.271059058041936</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>46.311857</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.312295353808647</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>39.278191</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>3.293504684665645</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>28.20620777066587</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>31.013873</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.024210743071213</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>31.627716</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.400324815226394</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>51.936472</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.593125620050452</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>35.477456</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.974810309772649</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>30.05652915746175</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>615.784903</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>40.19099504514205</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>1114.033597</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>49.32410835088501</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>806.957665</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>40.2904262616758</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>455.901936</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>38.22770661622724</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>13.21804508873232</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1270,483 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>3.194434</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>21.77930768255811</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>5.638724</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>30.40470814526947</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>8.886687999999999</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>41.02230982038964</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>2.734192</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>31.31835518477105</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-39.16583843234211</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>1.017293</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>6.93579433799934</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>3.178063</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>17.13651492470274</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>4.607307</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>21.26803317407452</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>2.146872</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>24.59099427993344</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-29.30370036680625</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ESSENTIAL OILS, PERFUME AND FLAVOUR MATERIALS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>1.178228</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>8.033031871124923</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>1.947785</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>10.50270140101443</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>2.227449</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>10.28224496990522</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>1.434496</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>16.43119987152816</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>61.06368573574703</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>1.342266</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>9.151425324748153</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>1.642729</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>8.857801127838563</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>2.5447</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>11.74672406637271</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>1.008111</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>11.54724260903211</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-16.02545947674961</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0.8793029999999999</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>5.994993348804949</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>4.049486340721301</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>0.939307</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>4.335984651476539</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>5.471209639786316</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-18.24576897798226</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>1.039866</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>7.089694625912123</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>0.62488</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>2.884541570556442</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>3.712694085141</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-48.12924081423633</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>0.995691</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>6.788514223726007</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>1.057587</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>5.702641958221595</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>1.432043</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>6.610529324549288</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>3.326350769811592</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-45.95873598960863</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.06292610598697414</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.676067240620559</v>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.2435851517013224</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.384829281132715</v>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.3943946287551844</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.2905600811665885</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.6650029744180658</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.3444433524643661</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-60.85524602967978</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>4.962361</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>33.83284395637121</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>4.264118</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>22.99265991507833</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>0.9410442965562439</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>0.1966136857786853</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-79.37939982220514</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1778,435 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>144.831924</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>9.544244686394403</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>261.503044</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>11.67396687343544</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>121.197471</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>6.117410610803488</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>155.099022</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>13.10107054894701</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>106.9054868185966</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>189.860074</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>12.51154408770368</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>287.517495</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>12.83529882031942</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>254.337685</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>12.8376280470918</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>103.326867</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>8.72792462978048</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-37.30881840667445</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>376.262844</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>24.79525611725386</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>249.615361</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>11.14327929358492</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>345.589846</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>17.44355697740874</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>102.109305</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>8.625078296811875</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-43.37423145426633</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>29.781619</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.962571862906224</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>76.30073400000001</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.406202189886588</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>119.522777</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>6.032880869704774</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>86.95766</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>7.345232895352154</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>37.2640440436228</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>50.674961</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.339417263126972</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>71.945072</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.211757593288005</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>107.997162</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>5.451128470786847</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>69.934133</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.907271357342557</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>13.68179797986071</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>41.268901</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.719569541053578</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>62.626302</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.795750916588808</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>83.16633400000001</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.197798929923438</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>50.451089</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>4.261556699307907</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-3.841250420244691</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>5.440664</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.3585330294476881</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>7.967762</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.3556952462986154</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>7.196331</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.3632329227253766</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>49.413185</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>4.173885910983824</v>
+      </c>
+      <c r="K50" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>25.759234</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.697501665655495</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>40.238299</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.796310139966823</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>53.091927</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.679801112168456</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>42.022201</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.54957634692907</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>34.50984660054732</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL YARNS, SPECIAL TEXTILE FABRICS AND RELATED PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>19.570855</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.289695142363402</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>51.294107</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>2.289861321539541</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>46.311857</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.337578854412018</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>39.278191</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>3.317792367033852</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>28.20620777066587</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>31.013873</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.043775877649467</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>31.615271</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.41136263923828</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>51.936472</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.621479823621883</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>35.476376</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.996656579800809</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>30.05256999388786</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>603.01421</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>39.73789072644522</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>1099.429543</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>49.08051496585355</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>790.841218</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>39.91750338135318</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>449.797224</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>37.99395436771046</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>13.93961075714001</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2238,437 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>0.06635446798161221</v>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>0.05655143157341176</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>70.244011</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>8.8730341667291</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>92.082138</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>21.42443054619264</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>321.9878134142265</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>159.129724</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>26.55816372615452</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>187.52671</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>26.77627383186224</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>207.373291</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>26.19483526232658</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>77.946816</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>18.1356143760352</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-30.08663386784128</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>130.130506</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>21.71830125285288</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>144.985604</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>20.70198018395322</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>172.638324</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>21.80720783923983</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>76.600386</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>17.82234519433668</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-27.22376429685984</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>68.94140899999999</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>11.50606675930502</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>77.666152</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>11.08967439048568</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>67.440212</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>8.518865833095065</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>52.247965</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>12.15635216161471</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>15.97191714439339</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>9.920223</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>1.655648611782697</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>12.339487</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1.761911585057426</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>24.742693</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>3.125430299899716</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>12.228347</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2.845126934349016</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-5.101186442085393</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>5.297317</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.8841026595090536</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>9.964492</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>1.422794472250916</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>23.959787</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>3.026535723857679</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>12.166505</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.830738371457073</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>19.70728523292953</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>50.654833</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>8.454104704756572</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>49.894587</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>7.124271119776345</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>43.4593</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>5.489661656167812</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>10.952141</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.548196526307944</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-41.7707318009429</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>9.642476</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.609293662405369</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>12.586401</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.79716755940327</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>19.087708</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.411107834496359</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>10.504878</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.444133400847263</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>43.8303852439949</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>9.987774999999999</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.666922791307003</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>19.92525</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>2.845055779884973</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>15.435555</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.949777709838156</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>10.489509</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.440557549110801</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-8.924734534431234</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>5.992534</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.000131811367609</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>10.74446</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.534163336708091</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>12.88108</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.627103311973043</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>10.023176</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>2.332057473125406</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>13.04483852736842</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>149.080046</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>24.88090955257766</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>174.317351</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>24.89015630904443</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>134.395207</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>16.97644036237666</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>64.557838</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>15.02044746662328</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-2.260260241983303</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
